--- a/ComputerComposition/MCC.xlsx
+++ b/ComputerComposition/MCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autum\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workpath\Notes\ComputerComposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{197BF1B1-BBB3-4974-B455-47EA1C5622B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F91F0-CFC5-4163-A2D7-E16E3201233C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{4A1BF099-32EC-4A84-8481-4666D932E36A}"/>
   </bookViews>
@@ -1591,9 +1591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1606,40 +1603,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,23 +1612,11 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1686,6 +1638,54 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2010,273 +2010,273 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="21.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="14"/>
-    <col min="4" max="4" width="14.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="14"/>
-    <col min="6" max="7" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" style="14" customWidth="1"/>
-    <col min="19" max="19" width="34.6640625" style="14" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="14"/>
-    <col min="22" max="22" width="12.33203125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="16" style="14" customWidth="1"/>
-    <col min="24" max="24" width="23.88671875" style="14" customWidth="1"/>
-    <col min="25" max="25" width="36.21875" style="14" customWidth="1"/>
-    <col min="26" max="26" width="17.5546875" style="14" customWidth="1"/>
-    <col min="27" max="27" width="18.109375" style="14" customWidth="1"/>
-    <col min="28" max="28" width="10" style="14" customWidth="1"/>
-    <col min="29" max="30" width="8.88671875" style="14"/>
-    <col min="31" max="31" width="11.44140625" style="14" customWidth="1"/>
-    <col min="32" max="32" width="35.6640625" style="14" customWidth="1"/>
-    <col min="33" max="33" width="21.109375" style="14" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="21.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="13"/>
+    <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="13"/>
+    <col min="6" max="7" width="0" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="34.6640625" style="13" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="13"/>
+    <col min="22" max="22" width="12.33203125" style="13" customWidth="1"/>
+    <col min="23" max="23" width="16" style="13" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" style="13" customWidth="1"/>
+    <col min="25" max="25" width="36.21875" style="13" customWidth="1"/>
+    <col min="26" max="26" width="17.5546875" style="13" customWidth="1"/>
+    <col min="27" max="27" width="18.109375" style="13" customWidth="1"/>
+    <col min="28" max="28" width="10" style="13" customWidth="1"/>
+    <col min="29" max="30" width="8.88671875" style="13"/>
+    <col min="31" max="31" width="11.44140625" style="13" customWidth="1"/>
+    <col min="32" max="32" width="35.6640625" style="13" customWidth="1"/>
+    <col min="33" max="33" width="21.109375" style="13" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="23" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="44" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="28" t="s">
         <v>297</v>
       </c>
       <c r="AE1" t="s">
         <v>298</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="25" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="24" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="24" t="s">
+      <c r="S2" s="33"/>
+      <c r="T2" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="24" t="s">
+      <c r="U2" s="32"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="31" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AB3" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="T4" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="T4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
       <c r="Z4" t="s">
         <v>290</v>
       </c>
@@ -2286,53 +2286,53 @@
       <c r="AB4" t="s">
         <v>156</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="13" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="P5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="14" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="P5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="T5" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W5" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
+      <c r="T5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" t="s">
         <v>290</v>
       </c>
@@ -2344,48 +2344,48 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="P6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="P6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W6" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
+      <c r="T6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
       <c r="Z6" t="s">
         <v>290</v>
       </c>
@@ -2397,48 +2397,48 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="P7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="P7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W7" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
+      <c r="T7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" t="s">
         <v>290</v>
       </c>
@@ -2450,45 +2450,45 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="P8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="14" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="P8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="T8" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W8" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
+      <c r="T8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
       <c r="Z8" t="s">
         <v>290</v>
       </c>
@@ -2500,1814 +2500,1814 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="P9" s="14" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="P9" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T9" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W9" s="14" t="s">
+      <c r="T9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="14" t="s">
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="13" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="P10" s="14" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="P10" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="T10" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W10" s="14" t="s">
+      <c r="T10" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="P11" s="14" t="s">
+      <c r="K11" s="30"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="P11" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V11" s="14" t="s">
+      <c r="T11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="W11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X11" s="14" t="s">
+      <c r="X11" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="P12" s="14" t="s">
+      <c r="K12" s="30"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="P12" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V12" s="14" t="s">
+      <c r="T12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W12" s="14" t="s">
+      <c r="W12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="P13" s="14" t="s">
+      <c r="K13" s="30"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="P13" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V13" s="14" t="s">
+      <c r="T13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V13" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W13" s="14" t="s">
+      <c r="W13" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="14" t="s">
+      <c r="X13" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="P14" s="14" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="P14" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V14" s="14" t="s">
+      <c r="T14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V14" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="W14" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="14" t="s">
+      <c r="X14" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
     </row>
     <row r="15" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="P15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W15" s="14" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="P15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X15" s="14" t="s">
+      <c r="X15" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Y15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="P16" s="14" t="s">
+      <c r="K16" s="30"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="P16" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V16" s="14" t="s">
+      <c r="T16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W16" s="14" t="s">
+      <c r="W16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X16" s="14" t="s">
+      <c r="X16" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="Y16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="P17" s="14" t="s">
+      <c r="K17" s="30"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="P17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V17" s="14" t="s">
+      <c r="T17" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W17" s="14" t="s">
+      <c r="W17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="X17" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Y17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="P18" s="14" t="s">
+      <c r="K18" s="30"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="P18" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V18" s="14" t="s">
+      <c r="T18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V18" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="W18" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X18" s="14" t="s">
+      <c r="X18" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Y18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="P19" s="14" t="s">
+      <c r="K19" s="30"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="P19" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="T19" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W19" s="14" t="s">
+      <c r="T19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X19" s="14" t="s">
+      <c r="X19" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Y19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="P20" s="14" t="s">
+      <c r="K20" s="30"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="P20" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="T20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U20" s="14" t="s">
+      <c r="U20" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="V20" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="W20" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
+      <c r="V20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="P21" s="14" t="s">
+      <c r="K21" s="30"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="P21" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="T21" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U21" s="14" t="s">
+      <c r="U21" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="W21" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
+      <c r="V21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="P22" s="14" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="P22" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U22" s="14" t="s">
+      <c r="U22" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="V22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="W22" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
+      <c r="V22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="P23" s="14" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="P23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U23" s="14" t="s">
+      <c r="U23" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V23" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="W23" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
+      <c r="V23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="P24" s="14" t="s">
+      <c r="K24" s="30"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="P24" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U24" s="14" t="s">
+      <c r="U24" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V24" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="W24" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
+      <c r="V24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="P25" s="14" t="s">
+      <c r="K25" s="30"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="P25" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="Q25" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="T25" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W25" s="14" t="s">
+      <c r="T25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X25" s="14" t="s">
+      <c r="X25" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="14" t="s">
+      <c r="Y25" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="P26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" s="14" t="s">
+      <c r="K26" s="30"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="P26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="T26" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W26" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="14" t="s">
+      <c r="T26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="13" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="P27" s="14" t="s">
+      <c r="K27" s="30"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="P27" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R27" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="T27" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W27" s="14" t="s">
+      <c r="T27" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X27" s="14" t="s">
+      <c r="X27" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="Y27" s="14" t="s">
+      <c r="Y27" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="P28" s="14" t="s">
+      <c r="K28" s="30"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="P28" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="Q28" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T28" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W28" s="14" t="s">
+      <c r="T28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W28" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X28" s="14" t="s">
+      <c r="X28" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y28" s="14" t="s">
+      <c r="Y28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="P29" s="14" t="s">
+      <c r="K29" s="30"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="P29" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q29" s="14" t="s">
+      <c r="Q29" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="T29" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W29" s="14" t="s">
+      <c r="T29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X29" s="14" t="s">
+      <c r="X29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y29" s="14" t="s">
+      <c r="Y29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="P30" s="14" t="s">
+      <c r="K30" s="30"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="P30" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="T30" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W30" s="14" t="s">
+      <c r="T30" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X30" s="14" t="s">
+      <c r="X30" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Y30" s="14" t="s">
+      <c r="Y30" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="P31" s="14" t="s">
+      <c r="K31" s="30"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="P31" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="R31" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="T31" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W31" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
+      <c r="T31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="P32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W32" s="14" t="s">
+      <c r="K32" s="30"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="P32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X32" s="14" t="s">
+      <c r="X32" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Y32" s="14" t="s">
+      <c r="Y32" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="P33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W33" s="14" t="s">
+      <c r="K33" s="30"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="P33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X33" s="14" t="s">
+      <c r="X33" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Y33" s="14" t="s">
+      <c r="Y33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="P34" s="14" t="s">
+      <c r="K34" s="30"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="P34" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="T34" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W34" s="14" t="s">
+      <c r="T34" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X34" s="14" t="s">
+      <c r="X34" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y34" s="14" t="s">
+      <c r="Y34" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="P35" s="14" t="s">
+      <c r="K35" s="30"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="P35" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="T35" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W35" s="14" t="s">
+      <c r="T35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X35" s="14" t="s">
+      <c r="X35" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y35" s="14" t="s">
+      <c r="Y35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="P36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T36" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W36" s="14" t="s">
+      <c r="K36" s="30"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="P36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X36" s="14" t="s">
+      <c r="X36" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="Y36" s="14" t="s">
+      <c r="Y36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="P37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T37" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W37" s="14" t="s">
+      <c r="K37" s="30"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="P37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X37" s="14" t="s">
+      <c r="X37" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="Y37" s="14" t="s">
+      <c r="Y37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="P38" s="14" t="s">
+      <c r="K38" s="30"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="P38" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q38" s="14" t="s">
+      <c r="Q38" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="T38" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W38" s="14" t="s">
+      <c r="T38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W38" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X38" s="14" t="s">
+      <c r="X38" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y38" s="14" t="s">
+      <c r="Y38" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="K39" s="36"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="P39" s="14" t="s">
+      <c r="K39" s="30"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="P39" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="T39" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W39" s="14" t="s">
+      <c r="T39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W39" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X39" s="14" t="s">
+      <c r="X39" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y39" s="14" t="s">
+      <c r="Y39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="36"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="P40" s="14" t="s">
+      <c r="K40" s="30"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="P40" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q40" s="14" t="s">
+      <c r="Q40" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="T40" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W40" s="14" t="s">
+      <c r="T40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W40" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X40" s="14" t="s">
+      <c r="X40" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y40" s="14" t="s">
+      <c r="Y40" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="K41" s="36"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="P41" s="14" t="s">
+      <c r="K41" s="30"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="P41" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q41" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="T41" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W41" s="14" t="s">
+      <c r="T41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X41" s="14" t="s">
+      <c r="X41" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y41" s="14" t="s">
+      <c r="Y41" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="K42" s="36"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="P42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T42" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W42" s="14" t="s">
+      <c r="K42" s="30"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="P42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W42" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X42" s="14" t="s">
+      <c r="X42" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="Y42" s="14" t="s">
+      <c r="Y42" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="P43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T43" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W43" s="14" t="s">
+      <c r="K43" s="30"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="P43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X43" s="14" t="s">
+      <c r="X43" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="Y43" s="14" t="s">
+      <c r="Y43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="P44" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T44" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W44" s="14" t="s">
+      <c r="K44" s="30"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="P44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X44" s="14" t="s">
+      <c r="X44" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="Y44" s="14" t="s">
+      <c r="Y44" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="K45" s="36"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="P45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T45" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W45" s="14" t="s">
+      <c r="K45" s="30"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="P45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X45" s="14" t="s">
+      <c r="X45" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="Y45" s="14" t="s">
+      <c r="Y45" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K46" s="36"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="P46" s="14" t="s">
+      <c r="K46" s="30"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="P46" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="Q46" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="T46" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W46" s="14" t="s">
+      <c r="T46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X46" s="14" t="s">
+      <c r="X46" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y46" s="14" t="s">
+      <c r="Y46" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="P47" s="14" t="s">
+      <c r="K47" s="30"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="P47" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q47" s="14" t="s">
+      <c r="Q47" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="T47" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="W47" s="14" t="s">
+      <c r="T47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="X47" s="14" t="s">
+      <c r="X47" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y47" s="14" t="s">
+      <c r="Y47" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="36"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M50" s="14" t="s">
+      <c r="M50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="P50" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="W50" s="14" t="s">
+      <c r="W50" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="X50" s="14" t="s">
+      <c r="X50" s="13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="R51" s="14" t="s">
+      <c r="R51" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="R52" s="14" t="s">
+      <c r="R52" s="13" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4316,6 +4316,11 @@
     <sortCondition ref="D4:D49"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="K4:K49"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="L4:L49"/>
@@ -4327,11 +4332,6 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4354,2155 +4354,2155 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="21.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="14"/>
-    <col min="4" max="4" width="14.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="14"/>
-    <col min="6" max="7" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="14"/>
-    <col min="12" max="12" width="17.44140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="14" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="14"/>
-    <col min="22" max="22" width="12.33203125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="16" style="14" customWidth="1"/>
-    <col min="24" max="24" width="23.88671875" style="14" customWidth="1"/>
-    <col min="25" max="25" width="36.21875" style="14" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="21.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="13"/>
+    <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="13"/>
+    <col min="6" max="7" width="0" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="13"/>
+    <col min="12" max="12" width="17.44140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="13" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="13"/>
+    <col min="22" max="22" width="12.33203125" style="13" customWidth="1"/>
+    <col min="23" max="23" width="16" style="13" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" style="13" customWidth="1"/>
+    <col min="25" max="25" width="36.21875" style="13" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="23" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="24" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="24" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="24" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="31" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="14" t="s">
+      <c r="M4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="14" t="s">
+      <c r="R4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="14" t="s">
+      <c r="R5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="14" t="s">
+      <c r="R6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="M7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="14" t="s">
+      <c r="R7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X8" s="14" t="s">
+      <c r="R8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q9" s="14" t="s">
+      <c r="M9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X9" s="14" t="s">
+      <c r="R9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X9" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+      <c r="M10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X10" s="14" t="s">
+      <c r="R10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X10" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q11" s="14" t="s">
+      <c r="M11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q11" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X11" s="14" t="s">
+      <c r="R11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X11" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q12" s="14" t="s">
+      <c r="M12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X12" s="14" t="s">
+      <c r="R12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X13" s="14" t="s">
+      <c r="L13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="14" t="s">
+      <c r="L14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R14" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" s="14" t="s">
+      <c r="R14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="W14" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="X14" s="14" t="s">
+      <c r="X14" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U15" s="14" t="s">
+      <c r="R15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="X15" s="14" t="s">
+      <c r="X15" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R16" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X16" s="14" t="s">
+      <c r="R16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="14" t="s">
+      <c r="M17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R17" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T17" s="14" t="s">
+      <c r="R17" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U17" s="14" t="s">
+      <c r="U17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="W17" s="14" t="s">
+      <c r="W17" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="14" t="s">
+      <c r="M18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T18" s="14" t="s">
+      <c r="R18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T18" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U18" s="14" t="s">
+      <c r="U18" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="W18" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="14" t="s">
+      <c r="M19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T19" s="14" t="s">
+      <c r="R19" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="U19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="W19" s="14" t="s">
+      <c r="W19" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="14" t="s">
+      <c r="M20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R20" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T20" s="14" t="s">
+      <c r="R20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U20" s="14" t="s">
+      <c r="U20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="W20" s="14" t="s">
+      <c r="W20" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U21" s="14" t="s">
+      <c r="L21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="W21" s="14" t="s">
+      <c r="W21" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="14" t="s">
+      <c r="M22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T22" s="14" t="s">
+      <c r="R22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T22" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U22" s="14" t="s">
+      <c r="U22" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="W22" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="14" t="s">
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R23" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T23" s="14" t="s">
+      <c r="R23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U23" s="14" t="s">
+      <c r="U23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="W23" s="14" t="s">
+      <c r="W23" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" s="14" t="s">
+      <c r="M24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R24" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T24" s="14" t="s">
+      <c r="R24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T24" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U24" s="14" t="s">
+      <c r="U24" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="W24" s="14" t="s">
+      <c r="W24" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="14" t="s">
+      <c r="P26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="W26" s="14" t="s">
+      <c r="W26" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="14" t="s">
+      <c r="P27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="W27" s="14" t="s">
+      <c r="W27" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q29" s="14" t="s">
+      <c r="Q29" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="R29" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U29" s="14" t="s">
+      <c r="R29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U29" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W29" s="14" t="s">
+      <c r="W29" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="R30" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U30" s="14" t="s">
+      <c r="R30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W30" s="14" t="s">
+      <c r="W30" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="14" t="s">
+      <c r="M31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="R31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U31" s="14" t="s">
+      <c r="R31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U31" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W31" s="14" t="s">
+      <c r="W31" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="14" t="s">
+      <c r="M32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="T32" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U32" s="14" t="s">
+      <c r="T32" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U32" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="14" t="s">
+      <c r="M33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q33" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="T33" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U33" s="14" t="s">
+      <c r="T33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T34" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U34" s="14" t="s">
+      <c r="M34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U34" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="W34" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T35" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U35" s="14" t="s">
+      <c r="M35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="W35" s="14" t="s">
+      <c r="W35" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="R36" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T36" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U36" s="14" t="s">
+      <c r="R36" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W36" s="14" t="s">
+      <c r="W36" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P37" s="14" t="s">
+      <c r="M37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q37" s="14" t="s">
+      <c r="Q37" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="R37" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T37" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U37" s="14" t="s">
+      <c r="R37" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W37" s="14" t="s">
+      <c r="W37" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="14" t="s">
+      <c r="M38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q38" s="14" t="s">
+      <c r="Q38" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="R38" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T38" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U38" s="14" t="s">
+      <c r="R38" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W38" s="14" t="s">
+      <c r="W38" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="P39" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="R39" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U39" s="14" t="s">
+      <c r="R39" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U39" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W39" s="14" t="s">
+      <c r="W39" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U40" s="14" t="s">
+      <c r="M40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U40" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V40" s="14" t="s">
+      <c r="V40" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="W40" s="14" t="s">
+      <c r="W40" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T41" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U41" s="14" t="s">
+      <c r="M41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U41" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="W41" s="14" t="s">
+      <c r="W41" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U42" s="14" t="s">
+      <c r="M42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U42" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V42" s="14" t="s">
+      <c r="V42" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="W42" s="14" t="s">
+      <c r="W42" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R43" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T43" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U43" s="14" t="s">
+      <c r="M43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U43" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V43" s="14" t="s">
+      <c r="V43" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="W43" s="14" t="s">
+      <c r="W43" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="L44" s="14" t="s">
+      <c r="L44" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M44" s="14" t="s">
+      <c r="M44" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q44" s="14" t="s">
+      <c r="Q44" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="R44" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T44" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U44" s="14" t="s">
+      <c r="R44" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V44" s="14" t="s">
+      <c r="V44" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W44" s="14" t="s">
+      <c r="W44" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="14" t="s">
+      <c r="M45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q45" s="14" t="s">
+      <c r="Q45" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R45" s="14" t="s">
+      <c r="R45" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S45" s="14" t="s">
+      <c r="S45" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="T45" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U45" s="14" t="s">
+      <c r="T45" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U45" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M46" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" s="14" t="s">
+      <c r="M46" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="Q46" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R46" s="14" t="s">
+      <c r="R46" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S46" s="14" t="s">
+      <c r="S46" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="T46" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U46" s="14" t="s">
+      <c r="T46" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U46" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M47" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" s="14" t="s">
+      <c r="M47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Q47" s="14" t="s">
+      <c r="Q47" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R47" s="14" t="s">
+      <c r="R47" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S47" s="14" t="s">
+      <c r="S47" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="T47" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U47" s="14" t="s">
+      <c r="T47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U47" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L48" s="14" t="s">
+      <c r="L48" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M48" s="14" t="s">
+      <c r="M48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="P48" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q48" s="14" t="s">
+      <c r="Q48" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="R48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U48" s="14" t="s">
+      <c r="R48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U48" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="V48" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W48" s="14" t="s">
+      <c r="W48" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P49" s="14" t="s">
+      <c r="M49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q49" s="14" t="s">
+      <c r="Q49" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="R49" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="T49" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U49" s="14" t="s">
+      <c r="R49" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U49" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V49" s="14" t="s">
+      <c r="V49" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="W49" s="14" t="s">
+      <c r="W49" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M50" s="14" t="s">
+      <c r="M50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="P50" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="W50" s="14" t="s">
+      <c r="W50" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="X50" s="14" t="s">
+      <c r="X50" s="13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R51" s="14" t="s">
+      <c r="R51" s="13" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6511,6 +6511,11 @@
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="E2:E3"/>
@@ -6519,11 +6524,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8348,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="44" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
